--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/Energy_metabolism_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF02BC3-049A-9A4B-A18E-516D500432D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3C9C5-CD85-8D4A-8EC1-FFA7F54EBABC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1640" windowWidth="27760" windowHeight="17540" activeTab="2" xr2:uid="{CD698AC4-1C22-EE47-96FC-DE6CF8B15158}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32560" windowHeight="17540" xr2:uid="{CD698AC4-1C22-EE47-96FC-DE6CF8B15158}"/>
   </bookViews>
   <sheets>
     <sheet name="ecoli_raw" sheetId="1" r:id="rId1"/>
     <sheet name="yeast_raw" sheetId="2" r:id="rId2"/>
-    <sheet name="comparison" sheetId="3" r:id="rId3"/>
+    <sheet name="comparison_rxn" sheetId="3" r:id="rId3"/>
+    <sheet name="comparison_pathway" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
   <si>
     <t>GLCptspp</t>
   </si>
@@ -216,6 +217,27 @@
   </si>
   <si>
     <t>FC (ecoli/yeast)</t>
+  </si>
+  <si>
+    <t>protein_cost</t>
+  </si>
+  <si>
+    <t>Glycolysis</t>
+  </si>
+  <si>
+    <t>TCA cycle</t>
+  </si>
+  <si>
+    <t>OXPHOS</t>
+  </si>
+  <si>
+    <t>g/gCDW per flux of glucose</t>
+  </si>
+  <si>
+    <t>g/gCDW per flux of pyruvate</t>
+  </si>
+  <si>
+    <t>g/gCDW per flux of NADH</t>
   </si>
 </sst>
 </file>
@@ -569,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EF9824-B62D-8147-BF28-C6C24EB00CCE}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="A1:A1048576 D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2346,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6AC704-9FB7-CF43-8824-26DF9418BAD5}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2654,4 +2676,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F5B67D-29F8-0940-92E8-B2F4FED07385}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2">
+        <v>4.4060455226875845</v>
+      </c>
+      <c r="C2">
+        <v>4.0061109468048919</v>
+      </c>
+      <c r="D2">
+        <f>B2/C2</f>
+        <v>1.099831128292057</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>7.2934213467172793</v>
+      </c>
+      <c r="C3">
+        <v>3.8632258800322741</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D4" si="0">B3/C3</f>
+        <v>1.8879096312784973</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>0.30920015123752703</v>
+      </c>
+      <c r="C4">
+        <v>3.0180397026365391</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.10245065728174876</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>